--- a/Code/9-Extensions/ItemTemplates/DatabaseTransferExcel/DatabaseTransfer.xlsx
+++ b/Code/9-Extensions/ItemTemplates/DatabaseTransferExcel/DatabaseTransfer.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{914F4A09-4EA4-48EC-BDFF-69E7443CE7E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="__Config" sheetId="1" r:id="rId1"/>
@@ -42,9 +41,6 @@
     <t>ImportMode</t>
   </si>
   <si>
-    <t>IgnoreExists</t>
-  </si>
-  <si>
     <t>System.Data.SqlClient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,23 +61,26 @@
   </si>
   <si>
     <t>ImportDatabase</t>
+  </si>
+  <si>
+    <t>Insert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,7 +133,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,27 +415,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="91.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="91.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -454,39 +453,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Static,FileRegex"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"IgnoreExists,Merge"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Insert,InsertNotExists,Merge"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"ImportDatabase,GenerateScript"</formula1>
     </dataValidation>
   </dataValidations>
@@ -496,12 +495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -509,12 +508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
